--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDD10C-9EE6-6B44-9EC9-7C11D3F1BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22EF8F2-F2FD-6647-9AFB-BD2C9881E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -216,6 +216,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -387,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -413,23 +416,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,7 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -472,7 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -481,12 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -494,7 +476,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -503,7 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -518,14 +498,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -542,6 +520,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +756,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -768,8 +764,8 @@
     <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="33"/>
+    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -791,7 +787,7 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -804,19 +800,19 @@
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="19">
+      <c r="C2" s="71">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="74">
         <v>44942</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="25">
         <v>0.2</v>
       </c>
       <c r="H2" s="8"/>
@@ -825,17 +821,17 @@
     <row r="3" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="75">
         <v>44944</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="26">
         <v>0.2</v>
       </c>
       <c r="I3" s="10"/>
@@ -843,19 +839,19 @@
     <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="19">
+      <c r="C4" s="71">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="74">
         <v>44949</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="27">
         <v>3.1</v>
       </c>
       <c r="H4" s="16"/>
@@ -864,17 +860,17 @@
     <row r="5" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="76">
         <v>44951</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="28">
         <v>3.1</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -885,197 +881,197 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="19">
+      <c r="C6" s="71">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="74">
         <v>44956</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="27">
         <v>3.2</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="81"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="76">
         <v>44958</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="28">
         <v>3.2</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="71">
         <v>4</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="75">
+      <c r="D8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="77">
         <v>44963</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="78">
         <v>44965</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="69" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="69" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="19">
+      <c r="C10" s="71">
         <v>5</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="74">
         <v>44970</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="27">
         <v>0.3</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="81"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="76">
         <v>44972</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="28">
         <v>0.4</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="71">
         <v>6</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="D12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="79">
         <v>44977</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="76">
         <v>44979</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="19">
+      <c r="C14" s="71">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="74">
         <v>44984</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="25">
         <v>1.3</v>
       </c>
       <c r="H14" s="8"/>
@@ -1084,128 +1080,128 @@
     <row r="15" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="76">
         <v>47150</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="68" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="71">
         <v>8</v>
       </c>
-      <c r="D16" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="75">
+      <c r="D16" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="77">
         <v>44990</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="69" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="78">
         <v>44992</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="84" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="69" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="71">
         <v>9</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="D18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="79">
         <v>44997</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="80">
         <v>44999</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="19">
+      <c r="C20" s="71">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="74">
         <v>45004</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="27" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="8"/>
@@ -1214,17 +1210,17 @@
     <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="76">
         <v>45006</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="28">
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
@@ -1235,149 +1231,149 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="19">
+      <c r="C22" s="71">
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="74">
         <v>45011</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="27">
         <v>2.5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="72"/>
+      <c r="D23" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="78">
         <v>45013</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="69" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="84" t="s">
+      <c r="I23" s="69" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="71">
         <v>12</v>
       </c>
-      <c r="D24" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="75">
+      <c r="D24" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="77">
         <v>45018</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="82" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="67" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="76">
         <v>45020</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="28">
         <v>4.0999999999999996</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="83" t="s">
+      <c r="I25" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="19">
+      <c r="C26" s="71">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="74">
         <v>45025</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="76">
         <v>45027</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="28">
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="83" t="s">
+      <c r="I27" s="68" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="19">
+      <c r="C28" s="71">
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="74">
         <v>45032</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
@@ -1386,19 +1382,19 @@
       <c r="B29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="76">
         <v>45034</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="35"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="68" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1407,76 +1403,76 @@
       <c r="B30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="71">
         <v>15</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="74">
         <v>45039</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="72"/>
+      <c r="D31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="81">
         <v>45041</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="85" t="s">
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="70" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="71">
         <v>16</v>
       </c>
-      <c r="D32" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="61">
+      <c r="D32" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="82">
         <v>45046</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="35"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/MATH220-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22EF8F2-F2FD-6647-9AFB-BD2C9881E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA88835A-AF37-8B4D-A324-75D451A2EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -86,130 +86,133 @@
     <t>Welcome, What is Discrete?, Mathematica Statements: Atomic &amp; Molecular Statements</t>
   </si>
   <si>
-    <t xml:space="preserve">Mathematical Statements: Implications, Predicates, Quantifiers </t>
+    <t>Proofs: Direct, Contrapositive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proofs: Contradiction, Counter Example, Cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic Wrap Up </t>
+  </si>
+  <si>
+    <t>Sets: Notation, Relationships, Operations</t>
+  </si>
+  <si>
+    <t>Functions: Describing, Surjection, Injection, Bijection</t>
+  </si>
+  <si>
+    <t>Counting: Additive and Multiplicative Principles, Sets, Inclusion/Exclusion Principle</t>
+  </si>
+  <si>
+    <t>Counting: Combinations, Permutations</t>
+  </si>
+  <si>
+    <t>1.4, 1.5</t>
+  </si>
+  <si>
+    <t>Counting Wrap Up</t>
+  </si>
+  <si>
+    <t>Sequences: Describing, Arithmetic and Geometric</t>
+  </si>
+  <si>
+    <t>2.1, 2.2</t>
+  </si>
+  <si>
+    <t>Sequences: Solving Recurrence Relations</t>
+  </si>
+  <si>
+    <t>Sequences: Induction</t>
+  </si>
+  <si>
+    <t>Sequences Wrap Up</t>
+  </si>
+  <si>
+    <t>Graph Theory: Definitions</t>
+  </si>
+  <si>
+    <t>Graph Theory: Trees</t>
+  </si>
+  <si>
+    <t>Graph Theory: Euler aths and Circuits</t>
+  </si>
+  <si>
+    <t>Graph Theory: BFS, DFS</t>
+  </si>
+  <si>
+    <t>Graph Wrap Up</t>
+  </si>
+  <si>
+    <t>Final Project Presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Presentations </t>
+  </si>
+  <si>
+    <t>NO CLASS - Monday Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Spring Break </t>
+  </si>
+  <si>
+    <t>hw01</t>
+  </si>
+  <si>
+    <t>q01</t>
+  </si>
+  <si>
+    <t>hw02</t>
+  </si>
+  <si>
+    <t>q02</t>
+  </si>
+  <si>
+    <t>hw03</t>
+  </si>
+  <si>
+    <t>q03</t>
+  </si>
+  <si>
+    <t>hw04</t>
+  </si>
+  <si>
+    <t>q04</t>
+  </si>
+  <si>
+    <t>q01, ic01</t>
+  </si>
+  <si>
+    <t>q03, ic02</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-check-in</t>
+  </si>
+  <si>
+    <t>proj-final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counting: Combinatorial Proofs, Binomial Coeffiencts, Pascal's Triangle </t>
+  </si>
+  <si>
+    <t>0.2 &amp; 3.1</t>
   </si>
   <si>
     <t>Propositional Logic: Truth Tables, Logical Equivalence</t>
   </si>
   <si>
-    <t>Propositional Logic: Deductions, Predicate Logic</t>
-  </si>
-  <si>
-    <t>Proofs: Direct, Contrapositive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proofs: Contradiction, Counter Example, Cases </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logic Wrap Up </t>
-  </si>
-  <si>
-    <t>Sets: Notation, Relationships, Operations</t>
-  </si>
-  <si>
-    <t>Functions: Describing, Surjection, Injection, Bijection</t>
-  </si>
-  <si>
-    <t>Counting: Additive and Multiplicative Principles, Sets, Inclusion/Exclusion Principle</t>
-  </si>
-  <si>
-    <t>Counting: Combinations, Permutations</t>
-  </si>
-  <si>
-    <t>Counting: Combinatorial Proofs, Stars and Bars</t>
-  </si>
-  <si>
-    <t>1.4, 1.5</t>
-  </si>
-  <si>
-    <t>Counting Wrap Up</t>
-  </si>
-  <si>
-    <t>Sequences: Describing, Arithmetic and Geometric</t>
-  </si>
-  <si>
-    <t>2.1, 2.2</t>
-  </si>
-  <si>
-    <t>Sequences: Solving Recurrence Relations</t>
-  </si>
-  <si>
-    <t>Sequences: Induction</t>
-  </si>
-  <si>
-    <t>Sequences Wrap Up</t>
-  </si>
-  <si>
-    <t>Graph Theory: Definitions</t>
-  </si>
-  <si>
-    <t>Graph Theory: Trees</t>
-  </si>
-  <si>
-    <t>Graph Theory: Euler aths and Circuits</t>
-  </si>
-  <si>
-    <t>Graph Theory: BFS, DFS</t>
-  </si>
-  <si>
-    <t>Graph Wrap Up</t>
-  </si>
-  <si>
-    <t>Final Project Presentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Project Presentations </t>
-  </si>
-  <si>
-    <t>NO CLASS - Monday Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO CLASS - Spring Break </t>
-  </si>
-  <si>
-    <t>hw01</t>
-  </si>
-  <si>
-    <t>q01</t>
-  </si>
-  <si>
-    <t>hw02</t>
-  </si>
-  <si>
-    <t>q02</t>
-  </si>
-  <si>
-    <t>hw03</t>
-  </si>
-  <si>
-    <t>q03</t>
-  </si>
-  <si>
-    <t>hw04</t>
-  </si>
-  <si>
-    <t>q04</t>
-  </si>
-  <si>
-    <t>q01, ic01</t>
-  </si>
-  <si>
-    <t>q03, ic02</t>
-  </si>
-  <si>
-    <t>ic03</t>
-  </si>
-  <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
-    <t>proj-check-in</t>
-  </si>
-  <si>
-    <t>proj-final</t>
+    <t>Propositional Logic: Boolean Algebra, Propositions, Quantifiers</t>
+  </si>
+  <si>
+    <t>Proofs: Induction</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -520,6 +523,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,15 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -800,13 +806,13 @@
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="71">
+      <c r="C2" s="81">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="71">
         <v>44942</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -818,80 +824,80 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="73"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="72">
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0.2</v>
+        <v>57</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="71">
+      <c r="C4" s="81">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="71">
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="27">
-        <v>3.1</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="72"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="73">
         <v>44951</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="71">
+      <c r="C6" s="81">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="27">
         <v>3.2</v>
@@ -899,27 +905,27 @@
       <c r="H6" s="16"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="72"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="73">
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G7" s="28">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -927,17 +933,17 @@
       <c r="B8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="81">
         <v>4</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="74">
         <v>44963</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="58"/>
@@ -948,38 +954,38 @@
       <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="75">
         <v>44965</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="71">
+      <c r="C10" s="81">
         <v>5</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="71">
         <v>44970</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="27">
         <v>0.3</v>
@@ -990,24 +996,24 @@
     <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="73">
         <v>44972</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="28">
         <v>0.4</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1015,19 +1021,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="71">
+        <v>39</v>
+      </c>
+      <c r="C12" s="81">
         <v>6</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="76">
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
@@ -1036,40 +1042,40 @@
     <row r="13" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <v>44979</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="71">
+      <c r="C14" s="81">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="71">
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="25">
         <v>1.3</v>
@@ -1077,27 +1083,27 @@
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="73">
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1105,17 +1111,17 @@
       <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="81">
         <v>8</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="74">
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
@@ -1126,20 +1132,20 @@
       <c r="B17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="75">
         <v>44992</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="56"/>
       <c r="I17" s="69" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1149,17 +1155,17 @@
       <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="81">
         <v>9</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="76">
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -1172,15 +1178,15 @@
       <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="77">
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
@@ -1189,20 +1195,20 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="71">
+      <c r="C20" s="81">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="71">
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1210,38 +1216,38 @@
     <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="73">
         <v>45006</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G21" s="28">
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="71">
+      <c r="C22" s="81">
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="71">
         <v>45011</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G22" s="27">
         <v>2.5</v>
@@ -1254,22 +1260,22 @@
       <c r="B23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="75">
         <v>45013</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1277,36 +1283,36 @@
       <c r="B24" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="81">
         <v>12</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="74">
         <v>45018</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="72"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="73">
         <v>45020</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="28">
         <v>4.0999999999999996</v>
@@ -1315,23 +1321,23 @@
         <v>13</v>
       </c>
       <c r="I25" s="68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="71">
+      <c r="C26" s="81">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="71">
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="8"/>
@@ -1340,38 +1346,38 @@
     <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="73">
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" s="28">
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="68" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="71">
+      <c r="C28" s="81">
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="71">
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="8"/>
@@ -1382,20 +1388,20 @@
       <c r="B29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="73">
         <v>45034</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="I29" s="68" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1403,17 +1409,17 @@
       <c r="B30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="81">
         <v>15</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="71">
         <v>45039</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="8"/>
@@ -1426,20 +1432,20 @@
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="78">
         <v>45041</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47"/>
       <c r="I31" s="70" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1449,17 +1455,17 @@
       <c r="B32" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="81">
         <v>16</v>
       </c>
       <c r="D32" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="79">
         <v>45046</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>
@@ -1468,9 +1474,9 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="76"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="22"/>
       <c r="G33" s="28"/>
       <c r="H33" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH220-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA88835A-AF37-8B4D-A324-75D451A2EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B97BC3-5331-CB4A-8379-DCCEA1A9BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Graph Theory: Trees</t>
   </si>
   <si>
-    <t>Graph Theory: Euler aths and Circuits</t>
-  </si>
-  <si>
     <t>Graph Theory: BFS, DFS</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>proj-proposal</t>
   </si>
   <si>
-    <t>proj-check-in</t>
-  </si>
-  <si>
     <t>proj-final</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Proofs: Induction</t>
+  </si>
+  <si>
+    <t>Graph Theory: Euler Paths and Circuits</t>
+  </si>
+  <si>
+    <t>proj-check</t>
   </si>
 </sst>
 </file>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -835,10 +835,10 @@
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -855,10 +855,10 @@
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
@@ -880,7 +880,7 @@
         <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -916,16 +916,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="28">
         <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -966,10 +966,10 @@
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1010,10 +1010,10 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="81">
         <v>6</v>
@@ -1033,7 +1033,7 @@
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
@@ -1056,10 +1056,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1094,16 +1094,16 @@
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1145,7 +1145,7 @@
       <c r="G17" s="65"/>
       <c r="H17" s="56"/>
       <c r="I17" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -1186,7 +1186,7 @@
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
@@ -1230,7 +1230,7 @@
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -1272,10 +1272,10 @@
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1298,7 +1298,7 @@
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1354,14 +1354,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G27" s="28">
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1377,7 +1377,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="8"/>
@@ -1396,12 +1396,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="I29" s="68" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1419,7 +1419,7 @@
         <v>45039</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="8"/>
@@ -1440,12 +1440,12 @@
         <v>45041</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47"/>
       <c r="I31" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1465,7 +1465,7 @@
         <v>45046</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B97BC3-5331-CB4A-8379-DCCEA1A9BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5607CB-275A-5D48-8ED0-DBACFEB72F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Proofs: Direct, Contrapositive</t>
   </si>
   <si>
-    <t xml:space="preserve">Proofs: Contradiction, Counter Example, Cases </t>
-  </si>
-  <si>
     <t xml:space="preserve">Logic Wrap Up </t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>proj-check</t>
+  </si>
+  <si>
+    <t>Proofs: Contradiction, Counter Example</t>
   </si>
 </sst>
 </file>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -835,10 +835,10 @@
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -855,10 +855,10 @@
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
@@ -880,7 +880,7 @@
         <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -897,7 +897,7 @@
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G6" s="27">
         <v>3.2</v>
@@ -916,16 +916,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="28">
         <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -943,7 +943,7 @@
         <v>44963</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="58"/>
@@ -962,14 +962,14 @@
         <v>44965</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -985,7 +985,7 @@
         <v>44970</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="27">
         <v>0.3</v>
@@ -1004,16 +1004,16 @@
         <v>44972</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="28">
         <v>0.4</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="81">
         <v>6</v>
@@ -1033,7 +1033,7 @@
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
@@ -1050,16 +1050,16 @@
         <v>44979</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1075,7 +1075,7 @@
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="25">
         <v>1.3</v>
@@ -1094,16 +1094,16 @@
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1121,7 +1121,7 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
@@ -1140,12 +1140,12 @@
         <v>44992</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="56"/>
       <c r="I17" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -1186,7 +1186,7 @@
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
@@ -1205,10 +1205,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1224,13 +1224,13 @@
         <v>45006</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="28">
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -1247,7 +1247,7 @@
         <v>45011</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="27">
         <v>2.5</v>
@@ -1268,14 +1268,14 @@
         <v>45013</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1293,12 +1293,12 @@
         <v>45018</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>45020</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="28">
         <v>4.0999999999999996</v>
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1337,7 +1337,7 @@
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="8"/>
@@ -1354,14 +1354,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="28">
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1377,7 +1377,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="8"/>
@@ -1396,12 +1396,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="I29" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1419,7 +1419,7 @@
         <v>45039</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="8"/>
@@ -1440,12 +1440,12 @@
         <v>45041</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47"/>
       <c r="I31" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1465,7 +1465,7 @@
         <v>45046</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5607CB-275A-5D48-8ED0-DBACFEB72F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A25D2-58F6-324C-BD3A-C3FC37B3FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50900" yWindow="3700" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -203,16 +203,37 @@
     <t>Propositional Logic: Boolean Algebra, Propositions, Quantifiers</t>
   </si>
   <si>
-    <t>Proofs: Induction</t>
-  </si>
-  <si>
     <t>Graph Theory: Euler Paths and Circuits</t>
   </si>
   <si>
     <t>proj-check</t>
   </si>
   <si>
+    <t xml:space="preserve">Proofs: Direct, Contrapositive </t>
+  </si>
+  <si>
     <t>Proofs: Contradiction, Counter Example</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Induction and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Logic Wrap Up </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -222,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,6 +288,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -762,7 +788,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -884,7 +910,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
       <c r="C6" s="81">
@@ -897,7 +923,7 @@
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="27">
         <v>3.2</v>
@@ -905,7 +931,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="82"/>
@@ -916,7 +942,7 @@
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G7" s="28">
         <v>2.5</v>
@@ -943,7 +969,7 @@
         <v>44963</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="58"/>
@@ -1354,7 +1380,7 @@
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="28">
         <v>4.5</v>
@@ -1401,7 +1427,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="I29" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A25D2-58F6-324C-BD3A-C3FC37B3FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B5DE9-0403-204E-B091-1F3BA54892CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50900" yWindow="3700" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Counting: Combinations, Permutations</t>
   </si>
   <si>
-    <t>1.4, 1.5</t>
-  </si>
-  <si>
     <t>Counting Wrap Up</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>q04</t>
   </si>
   <si>
-    <t>q01, ic01</t>
-  </si>
-  <si>
     <t>q03, ic02</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
   </si>
   <si>
     <t>proj-final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting: Combinatorial Proofs, Binomial Coeffiencts, Pascal's Triangle </t>
   </si>
   <si>
     <t>0.2 &amp; 3.1</t>
@@ -234,6 +225,12 @@
       </rPr>
       <t xml:space="preserve">Logic Wrap Up </t>
     </r>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>ic01</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -561,6 +558,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -800,7 +801,7 @@
     <col min="7" max="7" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -829,10 +830,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="81">
+      <c r="C2" s="83">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -850,10 +851,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="83"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -861,17 +862,17 @@
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="81">
+      <c r="C4" s="83">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -881,18 +882,18 @@
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="82"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -906,14 +907,14 @@
         <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="81">
+      <c r="C6" s="83">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -923,7 +924,7 @@
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="27">
         <v>3.2</v>
@@ -931,10 +932,10 @@
       <c r="H6" s="16"/>
       <c r="I6" s="66"/>
     </row>
-    <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="82"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -942,24 +943,24 @@
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="28">
         <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="57"/>
       <c r="B8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="83">
         <v>4</v>
       </c>
       <c r="D8" s="58" t="s">
@@ -969,18 +970,18 @@
         <v>44963</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="58"/>
       <c r="I8" s="67"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
       <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="56" t="s">
         <v>15</v>
       </c>
@@ -992,37 +993,40 @@
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="71">
-        <v>44970</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="74">
+        <v>45335</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
@@ -1030,26 +1034,26 @@
         <v>44972</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="81">
+        <v>36</v>
+      </c>
+      <c r="C12" s="83">
         <v>6</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -1059,16 +1063,16 @@
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1076,22 +1080,22 @@
         <v>44979</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="28">
-        <v>1.1000000000000001</v>
+        <v>20</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="81">
+      <c r="C14" s="83">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1101,18 +1105,18 @@
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="25">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1120,24 +1124,24 @@
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1.3</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="83">
         <v>8</v>
       </c>
       <c r="D16" s="58" t="s">
@@ -1147,7 +1151,7 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
@@ -1158,7 +1162,7 @@
       <c r="B17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="56" t="s">
         <v>15</v>
       </c>
@@ -1166,12 +1170,12 @@
         <v>44992</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="56"/>
       <c r="I17" s="69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1181,7 +1185,7 @@
       <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="83">
         <v>9</v>
       </c>
       <c r="D18" s="31" t="s">
@@ -1191,7 +1195,7 @@
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -1204,7 +1208,7 @@
       <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
@@ -1221,7 +1225,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="81">
+      <c r="C20" s="83">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1231,10 +1235,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1242,7 +1246,7 @@
     <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="82"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1250,20 +1254,20 @@
         <v>45006</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="28">
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="81">
+      <c r="C22" s="83">
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1273,7 +1277,7 @@
         <v>45011</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="27">
         <v>2.5</v>
@@ -1286,7 +1290,7 @@
       <c r="B23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="56" t="s">
         <v>15</v>
       </c>
@@ -1294,14 +1298,14 @@
         <v>45013</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1309,7 +1313,7 @@
       <c r="B24" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="83">
         <v>12</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -1319,18 +1323,18 @@
         <v>45018</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="82"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>45020</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="28">
         <v>4.0999999999999996</v>
@@ -1347,13 +1351,13 @@
         <v>13</v>
       </c>
       <c r="I25" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="81">
+      <c r="C26" s="83">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1363,7 +1367,7 @@
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="8"/>
@@ -1372,7 +1376,7 @@
     <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="82"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
@@ -1380,20 +1384,20 @@
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="28">
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="81">
+      <c r="C28" s="83">
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -1403,7 +1407,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="8"/>
@@ -1414,7 +1418,7 @@
       <c r="B29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
@@ -1422,12 +1426,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="I29" s="68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1435,7 +1439,7 @@
       <c r="B30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="83">
         <v>15</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -1445,7 +1449,7 @@
         <v>45039</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="8"/>
@@ -1458,7 +1462,7 @@
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="44" t="s">
         <v>15</v>
       </c>
@@ -1466,12 +1470,12 @@
         <v>45041</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47"/>
       <c r="I31" s="70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1481,7 +1485,7 @@
       <c r="B32" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="83">
         <v>16</v>
       </c>
       <c r="D32" s="48" t="s">
@@ -1491,7 +1495,7 @@
         <v>45046</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>
@@ -1500,7 +1504,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="82"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="18"/>
       <c r="E33" s="73"/>
       <c r="F33" s="22"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B5DE9-0403-204E-B091-1F3BA54892CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28051C55-06F9-4646-9E39-C15172B86F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -206,31 +206,13 @@
     <t>Proofs: Contradiction, Counter Example</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Induction and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Logic Wrap Up </t>
-    </r>
-  </si>
-  <si>
     <t>0,4</t>
   </si>
   <si>
     <t>ic01</t>
+  </si>
+  <si>
+    <t>Induction</t>
   </si>
 </sst>
 </file>
@@ -416,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -571,6 +553,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +781,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -956,25 +948,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="83">
         <v>4</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="74">
+      <c r="D8" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="88">
         <v>44963</v>
       </c>
-      <c r="F8" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
@@ -1019,7 +1009,7 @@
       <c r="G10" s="63"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="82"/>
     </row>
@@ -1083,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>42</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28051C55-06F9-4646-9E39-C15172B86F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D6B6C-2AAB-9440-B130-9EED54378886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -206,13 +206,13 @@
     <t>Proofs: Contradiction, Counter Example</t>
   </si>
   <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>ic01</t>
-  </si>
-  <si>
     <t>Induction</t>
+  </si>
+  <si>
+    <t>hw02, ic01</t>
+  </si>
+  <si>
+    <t>Snow Day</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,7 +519,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -544,6 +543,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,13 +558,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -831,7 +835,7 @@
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="70">
         <v>44942</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -850,13 +854,13 @@
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="71">
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="10"/>
@@ -870,7 +874,7 @@
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -889,7 +893,7 @@
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="72">
         <v>44951</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -912,7 +916,7 @@
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -922,7 +926,7 @@
         <v>3.2</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
@@ -931,7 +935,7 @@
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -943,28 +947,28 @@
       <c r="H7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="67" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="83">
         <v>4</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="70">
         <v>44963</v>
       </c>
-      <c r="F8" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="91"/>
+      <c r="F8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
@@ -975,7 +979,7 @@
       <c r="D9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="74">
         <v>44965</v>
       </c>
       <c r="F9" s="59" t="s">
@@ -985,55 +989,53 @@
       <c r="H9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="68" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="87"/>
       <c r="C10" s="83">
         <v>5</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="74">
+      <c r="D10" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="88">
         <v>45335</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="74">
+        <v>44972</v>
+      </c>
+      <c r="F11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="68" t="s">
         <v>58</v>
-      </c>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="73">
-        <v>44972</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1049,7 +1051,7 @@
       <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -1066,23 +1068,23 @@
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <v>44979</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="80">
+        <v>0.3</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="83">
@@ -1091,61 +1093,61 @@
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="84"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="28">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58" t="s">
-        <v>11</v>
-      </c>
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="83">
         <v>8</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="74">
+      <c r="D16" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="88">
         <v>44990</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
+      <c r="F16" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="90">
+        <v>1.3</v>
+      </c>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55"/>
@@ -1156,15 +1158,15 @@
       <c r="D17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="74">
         <v>44992</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1181,7 +1183,7 @@
       <c r="D18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
@@ -1202,7 +1204,7 @@
       <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="76">
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
@@ -1221,7 +1223,7 @@
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
@@ -1240,7 +1242,7 @@
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <v>45006</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1263,7 +1265,7 @@
       <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="70">
         <v>45011</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -1284,7 +1286,7 @@
       <c r="D23" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="74">
         <v>45013</v>
       </c>
       <c r="F23" s="59" t="s">
@@ -1294,7 +1296,7 @@
       <c r="H23" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1309,7 +1311,7 @@
       <c r="D24" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="73">
         <v>45018</v>
       </c>
       <c r="F24" s="61" t="s">
@@ -1317,7 +1319,7 @@
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="67" t="s">
+      <c r="I24" s="66" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1328,7 +1330,7 @@
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <v>45020</v>
       </c>
       <c r="F25" s="29" t="s">
@@ -1340,7 +1342,7 @@
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="68" t="s">
+      <c r="I25" s="67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1353,7 +1355,7 @@
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="70">
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -1370,7 +1372,7 @@
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="72">
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
@@ -1380,7 +1382,7 @@
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="67" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1393,7 +1395,7 @@
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="70">
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
@@ -1412,7 +1414,7 @@
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="72">
         <v>45034</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -1420,7 +1422,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="68" t="s">
+      <c r="I29" s="67" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1435,7 +1437,7 @@
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="70">
         <v>45039</v>
       </c>
       <c r="F30" s="43" t="s">
@@ -1456,7 +1458,7 @@
       <c r="D31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="77">
         <v>45041</v>
       </c>
       <c r="F31" s="45" t="s">
@@ -1464,7 +1466,7 @@
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47"/>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="69" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1481,7 +1483,7 @@
       <c r="D32" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="78">
         <v>45046</v>
       </c>
       <c r="F32" s="49" t="s">
@@ -1496,7 +1498,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="84"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="73"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="22"/>
       <c r="G33" s="28"/>
       <c r="H33" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D6B6C-2AAB-9440-B130-9EED54378886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D170343-E495-7F4A-AE1A-AF77E300518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,8 +273,15 @@
       <color theme="1"/>
       <name val="Arial (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -555,18 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -994,23 +1002,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="86" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="83">
         <v>5</v>
       </c>
-      <c r="D10" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="88">
+      <c r="D10" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="89">
         <v>45335</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
       <c r="J10" s="81"/>
@@ -1038,7 +1046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -1129,25 +1137,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="83">
         <v>8</v>
       </c>
-      <c r="D16" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="88">
+      <c r="D16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="70">
         <v>44990</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="27">
         <v>1.3</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D170343-E495-7F4A-AE1A-AF77E300518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA31F7A-ABFA-3C4C-9995-5907DD093D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -490,12 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,15 +553,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -575,6 +560,20 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +792,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -837,13 +836,13 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="83">
+      <c r="C2" s="86">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="68">
         <v>44942</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -858,17 +857,17 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="85"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="69">
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="77" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="10"/>
@@ -876,13 +875,13 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="83">
+      <c r="C4" s="86">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="68">
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -897,11 +896,11 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="84"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="70">
         <v>44951</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -918,13 +917,13 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="83">
+      <c r="C6" s="86">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -934,16 +933,16 @@
         <v>3.2</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="84"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="70">
         <v>44958</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -955,94 +954,94 @@
       <c r="H7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="65" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="83">
+      <c r="C8" s="86">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <v>44963</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="80" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="65"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <v>44965</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="66" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="83">
+      <c r="B10" s="82"/>
+      <c r="C10" s="86">
         <v>5</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="89">
+      <c r="D10" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="84">
         <v>45335</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="81"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <v>44972</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="66" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1053,13 +1052,13 @@
       <c r="B12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="86">
         <v>6</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="73">
         <v>44977</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -1072,36 +1071,36 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="84"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="70">
         <v>44979</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="78">
         <v>0.3</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="83">
+      <c r="C14" s="86">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -1116,11 +1115,11 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="84"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="70">
         <v>47150</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -1132,23 +1131,23 @@
       <c r="H15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="65" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="83">
+      <c r="C16" s="86">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="68">
         <v>44990</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="89" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="27">
@@ -1158,23 +1157,23 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <v>44992</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="68" t="s">
+      <c r="G17" s="62"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="66" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1185,13 +1184,13 @@
       <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="86">
         <v>9</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="73">
         <v>44997</v>
       </c>
       <c r="F18" s="32" t="s">
@@ -1208,11 +1207,11 @@
       <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="74">
         <v>44999</v>
       </c>
       <c r="F19" s="38" t="s">
@@ -1225,13 +1224,13 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="83">
+      <c r="C20" s="86">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="68">
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
@@ -1246,11 +1245,11 @@
     <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="84"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="70">
         <v>45006</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1267,13 +1266,13 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="83">
+      <c r="C22" s="86">
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="68">
         <v>45011</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -1286,59 +1285,59 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="56" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="72">
         <v>45013</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="58"/>
+      <c r="H23" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="66" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="86">
         <v>12</v>
       </c>
-      <c r="D24" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="73">
+      <c r="D24" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="71">
         <v>45018</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="66" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="84"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="70">
         <v>45020</v>
       </c>
       <c r="F25" s="29" t="s">
@@ -1350,20 +1349,20 @@
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="67" t="s">
+      <c r="I25" s="65" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="83">
+      <c r="C26" s="86">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="68">
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -1376,11 +1375,11 @@
     <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="84"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="70">
         <v>45027</v>
       </c>
       <c r="F27" s="29" t="s">
@@ -1390,20 +1389,20 @@
         <v>4.5</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="65" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="83">
+      <c r="C28" s="86">
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="68">
         <v>45032</v>
       </c>
       <c r="F28" s="21" t="s">
@@ -1414,99 +1413,99 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="72">
         <v>45034</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="67" t="s">
+      <c r="G29" s="58"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="86">
         <v>15</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="70">
+      <c r="D30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="71">
         <v>45039</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="75">
         <v>45041</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="69" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="67" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="83">
+      <c r="C32" s="86">
         <v>16</v>
       </c>
-      <c r="D32" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="78">
+      <c r="D32" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="76">
         <v>45046</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="84"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="22"/>
       <c r="G33" s="28"/>
       <c r="H33" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA31F7A-ABFA-3C4C-9995-5907DD093D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC0DE6-1C19-D344-A507-AD47BB0CDD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Snow Day</t>
+  </si>
+  <si>
+    <t>hw05</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,11 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,11 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -836,7 +839,7 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="86">
+      <c r="C2" s="89">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -857,7 +860,7 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="88"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -875,7 +878,7 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="86">
+      <c r="C4" s="89">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -896,7 +899,7 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="87"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -917,7 +920,7 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="86">
+      <c r="C6" s="89">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -938,7 +941,7 @@
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -961,7 +964,7 @@
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="86">
+      <c r="C8" s="89">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -982,7 +985,7 @@
       <c r="B9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="86">
+      <c r="C10" s="89">
         <v>5</v>
       </c>
       <c r="D10" s="83" t="s">
@@ -1027,7 +1030,7 @@
       <c r="B11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="54" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="B12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="89">
         <v>6</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -1071,7 +1074,7 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="87"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1097,7 @@
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="86">
+      <c r="C14" s="89">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1115,7 +1118,7 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="87"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1141,7 @@
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="86">
+      <c r="C16" s="89">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1147,7 +1150,7 @@
       <c r="E16" s="68">
         <v>44990</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="86" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="27">
@@ -1161,7 +1164,7 @@
       <c r="B17" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="54" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1175,9 @@
         <v>23</v>
       </c>
       <c r="G17" s="62"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="54" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="66" t="s">
         <v>46</v>
       </c>
@@ -1184,7 +1189,7 @@
       <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="89">
         <v>9</v>
       </c>
       <c r="D18" s="31" t="s">
@@ -1207,7 +1212,7 @@
       <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="37" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1229,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="86">
+      <c r="C20" s="89">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1245,7 +1250,7 @@
     <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="87"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1259,14 +1264,16 @@
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="86">
+      <c r="C22" s="89">
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1289,7 +1296,7 @@
       <c r="B23" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="54" t="s">
         <v>15</v>
       </c>
@@ -1301,10 +1308,10 @@
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="66" t="s">
         <v>45</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1312,7 +1319,7 @@
       <c r="B24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="89">
         <v>12</v>
       </c>
       <c r="D24" s="56" t="s">
@@ -1333,7 +1340,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="87"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1350,13 +1357,13 @@
         <v>13</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="86">
+      <c r="C26" s="89">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1375,7 +1382,7 @@
     <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="87"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
@@ -1396,7 +1403,7 @@
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="86">
+      <c r="C28" s="89">
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -1417,7 +1424,7 @@
       <c r="B29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="54" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="G29" s="58"/>
-      <c r="H29" s="90"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="66" t="s">
         <v>54</v>
       </c>
@@ -1438,7 +1445,7 @@
       <c r="B30" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="89">
         <v>15</v>
       </c>
       <c r="D30" s="56" t="s">
@@ -1452,7 +1459,7 @@
       </c>
       <c r="G30" s="60"/>
       <c r="H30" s="61"/>
-      <c r="I30" s="91"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51" t="s">
@@ -1461,7 +1468,7 @@
       <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="42" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1491,7 @@
       <c r="B32" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="89">
         <v>16</v>
       </c>
       <c r="D32" s="46" t="s">
@@ -1503,7 +1510,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="87"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="18"/>
       <c r="E33" s="70"/>
       <c r="F33" s="22"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC0DE6-1C19-D344-A507-AD47BB0CDD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD60398-B2F6-3E4C-9E16-EB1F4B2FE1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -113,12 +113,6 @@
     <t>2.1, 2.2</t>
   </si>
   <si>
-    <t>Sequences: Solving Recurrence Relations</t>
-  </si>
-  <si>
-    <t>Sequences: Induction</t>
-  </si>
-  <si>
     <t>Sequences Wrap Up</t>
   </si>
   <si>
@@ -128,12 +122,6 @@
     <t>Graph Theory: Trees</t>
   </si>
   <si>
-    <t>Graph Theory: BFS, DFS</t>
-  </si>
-  <si>
-    <t>Graph Wrap Up</t>
-  </si>
-  <si>
     <t>Final Project Presentations</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>q03, ic02</t>
   </si>
   <si>
-    <t>ic03</t>
-  </si>
-  <si>
     <t>proj-proposal</t>
   </si>
   <si>
@@ -216,6 +201,21 @@
   </si>
   <si>
     <t>hw05</t>
+  </si>
+  <si>
+    <t>q04, ic03</t>
+  </si>
+  <si>
+    <t>Algorithms: BFS, DFS</t>
+  </si>
+  <si>
+    <t>Algorithms: Big O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Theory Wrap Up </t>
+  </si>
+  <si>
+    <t>Sequences: Sums of Arithmetic and Geometric Sequences, Solving Recurrence Relations</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -279,6 +279,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -446,9 +452,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -533,7 +536,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -566,7 +568,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +578,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -803,8 +832,8 @@
     <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -826,7 +855,7 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -839,19 +868,19 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="89">
+      <c r="C2" s="86">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="66">
         <v>44942</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>0.2</v>
       </c>
       <c r="H2" s="8"/>
@@ -860,38 +889,38 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="91"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="67">
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="89">
+      <c r="C4" s="86">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="66">
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
@@ -899,217 +928,217 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="90"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="68">
         <v>44951</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="89">
+      <c r="C6" s="86">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="66">
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="27">
+        <v>50</v>
+      </c>
+      <c r="G6" s="26">
         <v>3.2</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="90"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <v>44958</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="F7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="27">
         <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="89">
+      <c r="C8" s="86">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="66">
         <v>44963</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="27"/>
+      <c r="F8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="26"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="54" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="70">
         <v>44965</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>39</v>
+      <c r="G9" s="57"/>
+      <c r="H9" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="89">
+      <c r="B10" s="80"/>
+      <c r="C10" s="86">
         <v>5</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="84">
+      <c r="D10" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="82">
         <v>45335</v>
       </c>
-      <c r="F10" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="79"/>
+      <c r="F10" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="70">
         <v>44972</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>58</v>
+      <c r="G11" s="57"/>
+      <c r="H11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="89">
+      <c r="B12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="86">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="73">
+      <c r="D12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="71">
         <v>44977</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="F12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="90"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <v>44979</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="76">
         <v>0.3</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="89">
+      <c r="C14" s="86">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="66">
         <v>44984</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0.4</v>
       </c>
       <c r="H14" s="8"/>
@@ -1118,403 +1147,403 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="90"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <v>47150</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>1.1000000000000001</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="89">
+      <c r="C16" s="86">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="66">
         <v>44990</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>1.3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="70">
         <v>44992</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="66" t="s">
-        <v>46</v>
+      <c r="G17" s="61"/>
+      <c r="H17" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="86">
         <v>9</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="73">
+      <c r="D18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="71">
         <v>44997</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="F18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="87"/>
+      <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <v>44999</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="F19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="89">
+      <c r="C20" s="86">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="66">
         <v>45004</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="90"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="68">
         <v>45006</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="86">
+        <v>11</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="69">
+        <v>45011</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="89">
+      <c r="G22" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="60"/>
+      <c r="I22" s="85"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="68">
-        <v>45011</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="70">
+        <v>45013</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="86">
+        <v>12</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="91">
+        <v>45018</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="72">
-        <v>45013</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="89">
-        <v>12</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="71">
-        <v>45018</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64" t="s">
-        <v>47</v>
-      </c>
+      <c r="G24" s="92">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="90"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="68">
         <v>45020</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="28">
-        <v>4.0999999999999996</v>
+      <c r="F25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="27">
+        <v>4.2</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="I25" s="63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="89">
+      <c r="C26" s="86">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="66">
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="G26" s="26">
+        <v>4.5</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="18" t="s">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="70">
         <v>45027</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="65" t="s">
-        <v>48</v>
+      <c r="F27" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="89">
-        <v>14</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="86">
+        <v>14</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="69">
         <v>45032</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="54" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="99">
         <v>45034</v>
       </c>
-      <c r="F29" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="66" t="s">
-        <v>54</v>
+      <c r="F29" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="101"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="102" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="89">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="86">
         <v>15</v>
       </c>
-      <c r="D30" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="71">
+      <c r="D30" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="104">
         <v>45039</v>
       </c>
-      <c r="F30" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="88"/>
+      <c r="F30" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="105"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="106"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="73">
         <v>45041</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="67" t="s">
-        <v>49</v>
+      <c r="F31" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="65" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="89">
+      <c r="C32" s="86">
         <v>16</v>
       </c>
-      <c r="D32" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="76">
+      <c r="D32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="74">
         <v>45046</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="F32" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="90"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="28"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD60398-B2F6-3E4C-9E16-EB1F4B2FE1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CC7AB-1D92-154E-814E-1710D8D4718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="500" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31760" yWindow="2380" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Sequences: Sums of Arithmetic and Geometric Sequences, Solving Recurrence Relations</t>
+  </si>
+  <si>
+    <t>ic04</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -569,6 +572,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,34 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +818,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -868,7 +862,7 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="86">
+      <c r="C2" s="96">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -889,7 +883,7 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="88"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -907,7 +901,7 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="86">
+      <c r="C4" s="96">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -928,7 +922,7 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="87"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -949,7 +943,7 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="86">
+      <c r="C6" s="96">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -970,7 +964,7 @@
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -993,7 +987,7 @@
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="86">
+      <c r="C8" s="96">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1014,7 +1008,7 @@
       <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="80"/>
-      <c r="C10" s="86">
+      <c r="C10" s="96">
         <v>5</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -1059,7 +1053,7 @@
       <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1078,7 @@
       <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="96">
         <v>6</v>
       </c>
       <c r="D12" s="30" t="s">
@@ -1103,7 +1097,7 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="87"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1126,7 +1120,7 @@
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="86">
+      <c r="C14" s="96">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1147,7 +1141,7 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="87"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1164,7 @@
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="86">
+      <c r="C16" s="96">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1193,7 +1187,7 @@
       <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1212,7 @@
       <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="96">
         <v>9</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -1241,7 +1235,7 @@
       <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1252,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="86">
+      <c r="C20" s="96">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1279,7 +1273,7 @@
     <row r="21" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="87"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1298,7 @@
       <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="96">
         <v>11</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -1327,7 +1321,7 @@
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="53" t="s">
         <v>15</v>
       </c>
@@ -1346,30 +1340,30 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="86">
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="96">
         <v>12</v>
       </c>
-      <c r="D24" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="91">
+      <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="66">
         <v>45018</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="26">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="87"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1386,7 @@
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="86">
+      <c r="C26" s="96">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1415,7 +1409,7 @@
       <c r="B27" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="87"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="53" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1430,7 @@
       <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="96">
         <v>14</v>
       </c>
       <c r="D28" s="55" t="s">
@@ -1450,45 +1444,47 @@
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="85"/>
+      <c r="I28" s="99" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="98" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="88">
         <v>45034</v>
       </c>
-      <c r="F29" s="100" t="s">
+      <c r="F29" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="102" t="s">
+      <c r="G29" s="90"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="91" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="86">
+      <c r="A30" s="7"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="96">
         <v>15</v>
       </c>
-      <c r="D30" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="104">
+      <c r="D30" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="93">
         <v>45039</v>
       </c>
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="106"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="95"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
@@ -1497,7 +1493,7 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
@@ -1520,7 +1516,7 @@
       <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="96">
         <v>16</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -1539,7 +1535,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="87"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="18"/>
       <c r="E33" s="68"/>
       <c r="F33" s="21"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CC7AB-1D92-154E-814E-1710D8D4718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278C8D2-2D39-5D43-B125-A30CCA62A08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="2380" windowWidth="21780" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>ic04</t>
+  </si>
+  <si>
+    <t>Graph Theory Wrap Up &amp; Proposal Check-in</t>
   </si>
 </sst>
 </file>
@@ -590,6 +593,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,7 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +821,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -862,7 +865,7 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="96">
+      <c r="C2" s="97">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -883,7 +886,7 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="98"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -901,7 +904,7 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="96">
+      <c r="C4" s="97">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -922,7 +925,7 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -943,7 +946,7 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="96">
+      <c r="C6" s="97">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -964,7 +967,7 @@
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -987,7 +990,7 @@
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="96">
+      <c r="C8" s="97">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1008,7 +1011,7 @@
       <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="80"/>
-      <c r="C10" s="96">
+      <c r="C10" s="97">
         <v>5</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -1053,7 +1056,7 @@
       <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1081,7 @@
       <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="97">
         <v>6</v>
       </c>
       <c r="D12" s="30" t="s">
@@ -1097,7 +1100,7 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="97"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1123,7 @@
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="96">
+      <c r="C14" s="97">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1141,7 +1144,7 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1167,7 @@
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="96">
+      <c r="C16" s="97">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1187,7 +1190,7 @@
       <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="96">
+      <c r="C18" s="97">
         <v>9</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -1235,7 +1238,7 @@
       <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1255,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="96">
+      <c r="C20" s="97">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1273,7 +1276,7 @@
     <row r="21" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="97"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1301,7 @@
       <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="97">
         <v>11</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -1321,7 +1324,7 @@
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="53" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1345,7 @@
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="96">
+      <c r="C24" s="97">
         <v>12</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -1363,7 +1366,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="97"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1389,7 @@
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="96">
+      <c r="C26" s="97">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1404,12 +1407,12 @@
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="97"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="53" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>45027</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="53"/>
@@ -1430,7 +1433,7 @@
       <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="96">
+      <c r="C28" s="97">
         <v>14</v>
       </c>
       <c r="D28" s="55" t="s">
@@ -1444,14 +1447,14 @@
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="97"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="87" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1473,7 @@
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="96">
+      <c r="C30" s="97">
         <v>15</v>
       </c>
       <c r="D30" s="92" t="s">
@@ -1493,7 +1496,7 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="97"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="97">
         <v>16</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -1535,7 +1538,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="97"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="18"/>
       <c r="E33" s="68"/>
       <c r="F33" s="21"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278C8D2-2D39-5D43-B125-A30CCA62A08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A67E49-4D68-5443-8812-21CC34237AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Sequences Wrap Up</t>
   </si>
   <si>
-    <t>Graph Theory: Definitions</t>
-  </si>
-  <si>
-    <t>Graph Theory: Trees</t>
-  </si>
-  <si>
     <t>Final Project Presentations</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Propositional Logic: Boolean Algebra, Propositions, Quantifiers</t>
   </si>
   <si>
-    <t>Graph Theory: Euler Paths and Circuits</t>
-  </si>
-  <si>
     <t>proj-check</t>
   </si>
   <si>
@@ -222,6 +213,18 @@
   </si>
   <si>
     <t>Graph Theory Wrap Up &amp; Proposal Check-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Ab Sick </t>
+  </si>
+  <si>
+    <t>Graph Theory: Graph Theory: Definitions, Trees</t>
+  </si>
+  <si>
+    <t>Graph Theory: Trees, Euler Paths and Circuits</t>
+  </si>
+  <si>
+    <t>4.2, 4.5</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -603,6 +606,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -894,10 +904,10 @@
         <v>44944</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -914,10 +924,10 @@
         <v>44949</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="9"/>
@@ -939,7 +949,7 @@
         <v>3.2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -956,7 +966,7 @@
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="26">
         <v>3.2</v>
@@ -975,16 +985,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="27">
         <v>2.5</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1000,7 +1010,7 @@
         <v>44963</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="16"/>
@@ -1023,17 +1033,19 @@
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="97">
         <v>5</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>45335</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="80"/>
@@ -1068,10 +1080,10 @@
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1079,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="97">
         <v>6</v>
@@ -1091,7 +1103,7 @@
         <v>44977</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
@@ -1114,10 +1126,10 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1158,10 +1170,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1202,10 +1214,10 @@
       </c>
       <c r="G17" s="61"/>
       <c r="H17" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="64" t="s">
         <v>40</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1225,7 +1237,7 @@
         <v>44997</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
@@ -1246,7 +1258,7 @@
         <v>44999</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
@@ -1284,16 +1296,16 @@
         <v>45006</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="27">
         <v>2.4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1336,34 +1348,36 @@
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="97">
         <v>12</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="66">
+      <c r="D24" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="82">
         <v>45018</v>
       </c>
-      <c r="F24" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="26">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="98"/>
@@ -1374,16 +1388,16 @@
         <v>45020</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G25" s="27">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -1399,10 +1413,10 @@
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="26">
-        <v>4.5</v>
+        <v>62</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1420,12 +1434,12 @@
         <v>45027</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="53"/>
       <c r="I27" s="64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1443,12 +1457,12 @@
         <v>45032</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
       <c r="I28" s="96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1462,12 +1476,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="87"/>
       <c r="I29" s="91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1483,7 +1497,7 @@
         <v>45039</v>
       </c>
       <c r="F30" s="86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" s="94"/>
       <c r="H30" s="92"/>
@@ -1504,12 +1518,12 @@
         <v>45041</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
       <c r="I31" s="65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1529,7 +1543,7 @@
         <v>45046</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="48"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A67E49-4D68-5443-8812-21CC34237AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F6CF5-B5AB-E742-AAD7-203992308E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -197,12 +197,6 @@
     <t>q04, ic03</t>
   </si>
   <si>
-    <t>Algorithms: BFS, DFS</t>
-  </si>
-  <si>
-    <t>Algorithms: Big O</t>
-  </si>
-  <si>
     <t xml:space="preserve">Graph Theory Wrap Up </t>
   </si>
   <si>
@@ -212,19 +206,19 @@
     <t>ic04</t>
   </si>
   <si>
-    <t>Graph Theory Wrap Up &amp; Proposal Check-in</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO CLASS - Ab Sick </t>
   </si>
   <si>
-    <t>Graph Theory: Graph Theory: Definitions, Trees</t>
-  </si>
-  <si>
-    <t>Graph Theory: Trees, Euler Paths and Circuits</t>
-  </si>
-  <si>
-    <t>4.2, 4.5</t>
+    <t>Algorithms: BFS, DFS, Big O</t>
+  </si>
+  <si>
+    <t>Graph Theory: Graph Theory: Definitions</t>
+  </si>
+  <si>
+    <t>Graph Theory: Trees &amp; Proposal Check-in</t>
+  </si>
+  <si>
+    <t>Graph Theory: Recap &amp; Euler Paths and Circuits</t>
   </si>
 </sst>
 </file>
@@ -581,15 +575,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +582,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,13 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,7 +869,7 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="97">
+      <c r="C2" s="100">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -896,7 +890,7 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="99"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -914,7 +908,7 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="97">
+      <c r="C4" s="100">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -935,7 +929,7 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="98"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -956,7 +950,7 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="97">
+      <c r="C6" s="100">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -977,7 +971,7 @@
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="98"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +994,7 @@
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="97">
+      <c r="C8" s="100">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1021,7 +1015,7 @@
       <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1040,7 @@
       <c r="B10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="100">
         <v>5</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -1068,7 +1062,7 @@
       <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1087,7 @@
       <c r="B12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="100">
         <v>6</v>
       </c>
       <c r="D12" s="30" t="s">
@@ -1112,7 +1106,7 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="98"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1135,7 +1129,7 @@
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="97">
+      <c r="C14" s="100">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1156,7 +1150,7 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="98"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1173,7 @@
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="97">
+      <c r="C16" s="100">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1202,7 +1196,7 @@
       <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1221,7 @@
       <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="100">
         <v>9</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -1250,7 +1244,7 @@
       <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1261,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="97">
+      <c r="C20" s="100">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1288,7 +1282,7 @@
     <row r="21" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="98"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1290,7 @@
         <v>45006</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="27">
         <v>2.4</v>
@@ -1313,7 +1307,7 @@
       <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="100">
         <v>11</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -1336,7 +1330,7 @@
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="53" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1355,7 @@
       <c r="B24" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="100">
         <v>12</v>
       </c>
       <c r="D24" s="80" t="s">
@@ -1370,17 +1364,17 @@
       <c r="E24" s="82">
         <v>45018</v>
       </c>
-      <c r="F24" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="101"/>
+      <c r="F24" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="93"/>
       <c r="H24" s="81"/>
-      <c r="I24" s="102"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="98"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>45020</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="27">
         <v>4.0999999999999996</v>
@@ -1403,7 +1397,7 @@
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="97">
+      <c r="C26" s="100">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1413,32 +1407,32 @@
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="G26" s="24">
+        <v>4.2</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="53" t="s">
+    <row r="27" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="68">
         <v>45027</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="64" t="s">
+      <c r="F27" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="63" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1447,7 +1441,7 @@
       <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="100">
         <v>14</v>
       </c>
       <c r="D28" s="55" t="s">
@@ -1457,51 +1451,53 @@
         <v>45032</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="96" t="s">
-        <v>58</v>
+      <c r="I28" s="91" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="87" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="96">
         <v>45034</v>
       </c>
-      <c r="F29" s="89" t="s">
+      <c r="F29" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="91" t="s">
+      <c r="G29" s="97"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="98" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="97">
+      <c r="C30" s="100">
         <v>15</v>
       </c>
-      <c r="D30" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="93">
+      <c r="D30" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="88">
         <v>45039</v>
       </c>
       <c r="F30" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="95"/>
+        <v>58</v>
+      </c>
+      <c r="G30" s="89"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="90"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
@@ -1510,7 +1506,7 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="98"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1529,7 @@
       <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="100">
         <v>16</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -1552,7 +1548,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="98"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="18"/>
       <c r="E33" s="68"/>
       <c r="F33" s="21"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F6CF5-B5AB-E742-AAD7-203992308E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4CC839-C669-2643-9878-A306AD9CAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>Propositional Logic: Boolean Algebra, Propositions, Quantifiers</t>
   </si>
   <si>
-    <t>proj-check</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proofs: Direct, Contrapositive </t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Graph Theory: Recap &amp; Euler Paths and Circuits</t>
+  </si>
+  <si>
+    <t>proj-checkin</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -572,16 +572,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -607,6 +597,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +838,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D29" sqref="D29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -835,6 +848,7 @@
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="25"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -869,7 +883,7 @@
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="100">
+      <c r="C2" s="94">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -890,7 +904,7 @@
     <row r="3" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="102"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
@@ -908,7 +922,7 @@
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="100">
+      <c r="C4" s="94">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -929,7 +943,7 @@
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="101"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
@@ -950,7 +964,7 @@
     <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="100">
+      <c r="C6" s="94">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -960,7 +974,7 @@
         <v>44956</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="26">
         <v>3.2</v>
@@ -971,7 +985,7 @@
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="101"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
@@ -979,7 +993,7 @@
         <v>44958</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="27">
         <v>2.5</v>
@@ -994,7 +1008,7 @@
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="100">
+      <c r="C8" s="94">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1004,7 +1018,7 @@
         <v>44963</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="16"/>
@@ -1015,7 +1029,7 @@
       <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1054,7 @@
       <c r="B10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="94">
         <v>5</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -1050,7 +1064,7 @@
         <v>45335</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="80"/>
@@ -1062,7 +1076,7 @@
       <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1087,7 +1101,7 @@
       <c r="B12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="94">
         <v>6</v>
       </c>
       <c r="D12" s="30" t="s">
@@ -1106,7 +1120,7 @@
     <row r="13" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="101"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1143,7 @@
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="100">
+      <c r="C14" s="94">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1150,7 +1164,7 @@
     <row r="15" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="101"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1187,7 @@
     <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="100">
+      <c r="C16" s="94">
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1196,7 +1210,7 @@
       <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1235,7 @@
       <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="94">
         <v>9</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -1244,7 +1258,7 @@
       <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1275,7 @@
     <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="100">
+      <c r="C20" s="94">
         <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1282,7 +1296,7 @@
     <row r="21" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="101"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>45006</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="27">
         <v>2.4</v>
@@ -1307,7 +1321,7 @@
       <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="94">
         <v>11</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -1330,7 +1344,7 @@
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="53" t="s">
         <v>15</v>
       </c>
@@ -1342,10 +1356,10 @@
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="64" t="s">
         <v>52</v>
-      </c>
-      <c r="I23" s="64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1355,7 +1369,7 @@
       <c r="B24" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="94">
         <v>12</v>
       </c>
       <c r="D24" s="80" t="s">
@@ -1364,17 +1378,17 @@
       <c r="E24" s="82">
         <v>45018</v>
       </c>
-      <c r="F24" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="93"/>
+      <c r="F24" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="87"/>
       <c r="H24" s="81"/>
-      <c r="I24" s="94"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="101"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>45020</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="27">
         <v>4.0999999999999996</v>
@@ -1391,13 +1405,13 @@
         <v>13</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="100">
+      <c r="C26" s="94">
         <v>13</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1407,7 +1421,7 @@
         <v>45025</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="24">
         <v>4.2</v>
@@ -1418,15 +1432,15 @@
     <row r="27" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="101"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="68">
         <v>45027</v>
       </c>
-      <c r="F27" s="99" t="s">
-        <v>60</v>
+      <c r="F27" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="27">
         <v>4.5</v>
@@ -1437,67 +1451,67 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="100">
-        <v>14</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="69">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99">
+        <v>14</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="100">
         <v>45032</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="91" t="s">
-        <v>56</v>
-      </c>
+      <c r="F28" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="95" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="90">
         <v>45034</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="98" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="92" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="100">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="94">
         <v>15</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="88">
+      <c r="D30" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="107">
         <v>45039</v>
       </c>
-      <c r="F30" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="90"/>
+      <c r="F30" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="108"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="109" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
@@ -1506,7 +1520,7 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="41" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1543,7 @@
       <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="94">
         <v>16</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -1548,7 +1562,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="101"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="18"/>
       <c r="E33" s="68"/>
       <c r="F33" s="21"/>
